--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1530,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1565,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1623,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1865,10 +1877,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1912,28 +1924,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1958,28 +1970,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2270,10 +2282,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2317,28 +2329,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2363,28 +2375,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2501,10 +2513,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2548,28 +2560,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2594,28 +2606,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2877,10 +2889,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2924,28 +2936,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2970,28 +2982,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3253,10 +3265,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3300,28 +3312,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3346,28 +3358,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3513,10 +3525,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3560,28 +3572,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3606,28 +3618,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3744,10 +3756,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3791,28 +3803,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3837,28 +3849,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4004,10 +4016,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="J134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4051,28 +4063,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4097,28 +4109,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4264,10 +4276,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="J143" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4311,28 +4323,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4357,28 +4369,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4611,10 +4623,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
+      <c r="J155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K155" s="2" t="s">
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4658,28 +4670,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4704,28 +4716,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4842,10 +4854,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
+      <c r="J163" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4889,28 +4901,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4935,28 +4947,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5073,10 +5085,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5120,28 +5132,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5166,28 +5178,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5275,10 +5287,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
+      <c r="J178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5322,28 +5334,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5368,28 +5380,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5564,10 +5576,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
+      <c r="J188" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K188" s="2" t="s">
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5611,28 +5623,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5657,28 +5669,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5766,10 +5778,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
+      <c r="J195" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5813,28 +5825,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5859,28 +5871,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5939,10 +5951,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
+      <c r="J201" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
